--- a/stocks.xlsx
+++ b/stocks.xlsx
@@ -326,7 +326,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C4" sqref="A2:C4"/>
@@ -360,6 +360,17 @@
         <v>43952</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>179.21</v>
+      </c>
+      <c r="B3" t="n">
+        <v>125.56</v>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>43952</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>

--- a/stocks.xlsx
+++ b/stocks.xlsx
@@ -326,7 +326,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C4" sqref="A2:C4"/>
@@ -371,6 +371,83 @@
         <v>43952</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>179.21</v>
+      </c>
+      <c r="B4" t="n">
+        <v>125.56</v>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>43953</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>179.21</v>
+      </c>
+      <c r="B5" t="n">
+        <v>125.56</v>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>43954</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>174.57</v>
+      </c>
+      <c r="B6" t="n">
+        <v>121.87</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>43955</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>174.57</v>
+      </c>
+      <c r="B7" t="n">
+        <v>121.87</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>43956</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>186.74</v>
+      </c>
+      <c r="B8" t="n">
+        <v>122.59</v>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>43963</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>183.12</v>
+      </c>
+      <c r="B9" t="n">
+        <v>120.29</v>
+      </c>
+      <c r="C9" s="2" t="n">
+        <v>43971</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>183.43</v>
+      </c>
+      <c r="B10" t="n">
+        <v>119.12</v>
+      </c>
+      <c r="C10" s="2" t="n">
+        <v>43974</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>

--- a/stocks.xlsx
+++ b/stocks.xlsx
@@ -326,7 +326,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C4" sqref="A2:C4"/>
@@ -448,6 +448,123 @@
         <v>43974</v>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>183.43</v>
+      </c>
+      <c r="B11" t="n">
+        <v>119.12</v>
+      </c>
+      <c r="C11" s="2" t="n">
+        <v>43974</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>183.43</v>
+      </c>
+      <c r="B12" t="n">
+        <v>119.12</v>
+      </c>
+      <c r="C12" s="2" t="n">
+        <v>43975</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>183.43</v>
+      </c>
+      <c r="B13" t="n">
+        <v>119.12</v>
+      </c>
+      <c r="C13" s="2" t="n">
+        <v>43977</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>181.4</v>
+      </c>
+      <c r="B14" t="n">
+        <v>124.53</v>
+      </c>
+      <c r="C14" s="2" t="n">
+        <v>43981</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>184.91</v>
+      </c>
+      <c r="B15" t="n">
+        <v>126</v>
+      </c>
+      <c r="C15" s="2" t="n">
+        <v>43986</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>182.92</v>
+      </c>
+      <c r="B16" t="n">
+        <v>128.89</v>
+      </c>
+      <c r="C16" s="2" t="n">
+        <v>43988</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>208.9</v>
+      </c>
+      <c r="B17" t="n">
+        <v>125.27</v>
+      </c>
+      <c r="C17" t="n">
+        <v>462.56</v>
+      </c>
+      <c r="D17" t="n">
+        <v>28.95</v>
+      </c>
+      <c r="E17" s="2" t="n">
+        <v>44058</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>208.9</v>
+      </c>
+      <c r="B18" t="n">
+        <v>125.27</v>
+      </c>
+      <c r="C18" t="n">
+        <v>462.56</v>
+      </c>
+      <c r="D18" t="n">
+        <v>28.95</v>
+      </c>
+      <c r="E18" s="2" t="n">
+        <v>44058</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>208.9</v>
+      </c>
+      <c r="B19" t="n">
+        <v>125.27</v>
+      </c>
+      <c r="C19" t="n">
+        <v>462.56</v>
+      </c>
+      <c r="D19" t="n">
+        <v>28.95</v>
+      </c>
+      <c r="E19" s="2" t="n">
+        <v>44058</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
